--- a/리볼트데이 버그 리포트19-01-27.xlsx
+++ b/리볼트데이 버그 리포트19-01-27.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371DB48A-B11D-46BD-9EC4-3DE1F8F65B94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,14 +198,58 @@
   </si>
   <si>
     <t>프롤로그 마지막 부분, CG를 출력하지 못하고 멈춤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 가이드 출력 조건 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지 구현 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 재확인 요청</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,13 +264,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,16 +308,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,312 +615,339 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>11</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="F22" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31">
+      <c r="B31" s="1">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32">
+      <c r="B32" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33">
+      <c r="B33" s="1">
         <v>3</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34">
+      <c r="B34" s="1">
         <v>4</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35">
+      <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/리볼트데이 버그 리포트19-01-27.xlsx
+++ b/리볼트데이 버그 리포트19-01-27.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E9689E-70ED-4DB1-9216-A18F1B8B758C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,14 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밸런스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>추가 또는 남은 업무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,55 +194,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건 가이드 출력 조건 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유지 구현 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유지 구현 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블 재확인 요청</t>
+    <t>세이브/로드 수정 전 apk로 테스트됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7) (6)과 마찬가지로 일치하지 않는 또는 등장 조건이 다른 몬스터가 씬에 출현한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6) EX: 비누 도둑 이슈에서 낡은 목욕탕만을 도둑하는 
+블라블라 가 나와야 하는데 다른 씬 스크립트가 출력된다.
+또는 사건 스크립트가 출력되는 경우도 존재함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,14 +233,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -281,17 +240,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -308,36 +262,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
-    <cellStyle name="좋음" xfId="1" builtinId="26"/>
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,339 +563,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="8.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>7</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
         <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
         <v>9</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
         <v>10</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
         <v>11</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
+      <c r="B33">
         <v>3</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
+      <c r="B34">
         <v>4</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>34</v>
+      <c r="C35" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F14:L17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>